--- a/templates/用户模板.xlsx
+++ b/templates/用户模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编号</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>毕业院校</t>
+  </si>
+  <si>
+    <t>科室编号</t>
   </si>
   <si>
     <t>00000001</t>
@@ -63,11 +66,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +86,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -99,6 +108,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -112,6 +127,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,76 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +156,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,33 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -264,13 +279,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,6 +417,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,157 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,47 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,11 +506,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,147 +590,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,64 +1085,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="22.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="22.1111111111111" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>13333333333</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/templates/用户模板.xlsx
+++ b/templates/用户模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>清华大学</t>
+  </si>
+  <si>
+    <t>*此行为结束*(所有数据写在此行前面)</t>
   </si>
 </sst>
 </file>
@@ -65,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,14 +151,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,38 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,54 +265,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -279,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,54 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,6 +524,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,6 +556,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,149 +588,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +745,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -806,7 +819,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1085,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="22.1111111111111" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
@@ -1126,13 +1139,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1149,6 +1162,11 @@
       </c>
       <c r="H2" s="1">
         <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
